--- a/files/informe.xlsx
+++ b/files/informe.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S\Documents\HebroenData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S\Documents\Hebroen_Backend\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDA56356-A338-4441-85A8-742AAD5CBB58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2A10D8-812D-421B-B99D-16D46B6B42F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6BB1E52A-7941-4131-8D6A-6BDEDCF96B7F}"/>
+    <workbookView xWindow="28680" yWindow="4425" windowWidth="20730" windowHeight="11160" xr2:uid="{6BB1E52A-7941-4131-8D6A-6BDEDCF96B7F}"/>
   </bookViews>
   <sheets>
     <sheet name="FO-GPP-07" sheetId="1" r:id="rId1"/>
@@ -460,9 +460,182 @@
   </cellStyleXfs>
   <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -472,13 +645,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -494,9 +660,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -506,9 +669,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -518,169 +678,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1076,435 +1076,467 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CD1B522-C468-4541-BC86-EB77EB936FD9}">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:F12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20" defaultRowHeight="17.25" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.140625" style="75" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" style="75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61" style="75" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="75" customWidth="1"/>
-    <col min="5" max="5" width="18" style="75" customWidth="1"/>
-    <col min="6" max="6" width="30" style="75" customWidth="1"/>
-    <col min="7" max="16384" width="20" style="6"/>
+    <col min="1" max="1" width="31.140625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61" style="23" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="23" customWidth="1"/>
+    <col min="5" max="5" width="18" style="23" customWidth="1"/>
+    <col min="6" max="6" width="30" style="23" customWidth="1"/>
+    <col min="7" max="16384" width="20" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="58"/>
+      <c r="B1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5" t="s">
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11" t="s">
+      <c r="A2" s="59"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="67" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="12"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="68"/>
     </row>
     <row r="4" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17" t="s">
+      <c r="A4" s="60"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20"/>
-    </row>
-    <row r="6" spans="1:6" s="25" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="74"/>
+    </row>
+    <row r="6" spans="1:6" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23" t="s">
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="24"/>
-    </row>
-    <row r="7" spans="1:6" s="25" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27"/>
-    </row>
-    <row r="8" spans="1:6" s="25" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" s="7" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="50"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="51"/>
+    </row>
+    <row r="8" spans="1:6" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="29" t="s">
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="30"/>
-    </row>
-    <row r="9" spans="1:6" s="25" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="33"/>
-    </row>
-    <row r="10" spans="1:6" s="25" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" s="7" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="53"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="55"/>
+    </row>
+    <row r="10" spans="1:6" s="7" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="29" t="s">
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="30"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="34"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="36"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
     </row>
     <row r="13" spans="1:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="34"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="36"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-    </row>
-    <row r="15" spans="1:6" s="40" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="39"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-    </row>
-    <row r="16" spans="1:6" s="40" customFormat="1" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="43"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+    </row>
+    <row r="15" spans="1:6" s="13" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+    </row>
+    <row r="16" spans="1:6" s="13" customFormat="1" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="43"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="45"/>
     </row>
     <row r="17" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
     </row>
     <row r="18" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
     </row>
     <row r="19" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="49"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
     </row>
     <row r="20" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="49"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
     </row>
     <row r="21" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="49"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="49"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
     </row>
     <row r="23" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="49"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
     </row>
     <row r="24" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="49"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
     </row>
     <row r="25" spans="1:6" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="34"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="36"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="12"/>
     </row>
     <row r="26" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="51" t="s">
+      <c r="A26" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
     </row>
     <row r="27" spans="1:6" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="52"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="55"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="41"/>
     </row>
     <row r="28" spans="1:6" ht="177" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="56" t="s">
+      <c r="A28" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="56"/>
-      <c r="C28" s="57" t="s">
+      <c r="B28" s="34"/>
+      <c r="C28" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="58" t="s">
+      <c r="D28" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
     </row>
     <row r="29" spans="1:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="59"/>
-      <c r="B29" s="60"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="61"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="33"/>
     </row>
     <row r="30" spans="1:6" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="62" t="s">
+      <c r="A30" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="62"/>
-      <c r="C30" s="63" t="s">
+      <c r="B30" s="24"/>
+      <c r="C30" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="64" t="s">
+      <c r="D30" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
     </row>
     <row r="31" spans="1:6" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="65"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
     </row>
     <row r="32" spans="1:6" ht="177" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="62" t="s">
+      <c r="A32" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="62"/>
-      <c r="C32" s="63" t="s">
+      <c r="B32" s="24"/>
+      <c r="C32" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="64" t="s">
+      <c r="D32" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
     </row>
     <row r="33" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="59"/>
-      <c r="B33" s="60"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="61"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="33"/>
     </row>
     <row r="34" spans="1:6" ht="178.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="62" t="s">
+      <c r="A34" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="62"/>
-      <c r="C34" s="63" t="s">
+      <c r="B34" s="24"/>
+      <c r="C34" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="64" t="s">
+      <c r="D34" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
     </row>
     <row r="35" spans="1:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="59"/>
-      <c r="B35" s="60"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="61"/>
+      <c r="A35" s="31"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="33"/>
     </row>
     <row r="36" spans="1:6" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="62" t="s">
+      <c r="A36" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="62"/>
-      <c r="C36" s="63" t="s">
+      <c r="B36" s="24"/>
+      <c r="C36" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="64" t="s">
+      <c r="D36" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
     </row>
     <row r="37" spans="1:6" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="67"/>
-      <c r="B37" s="67"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="70"/>
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="28"/>
     </row>
     <row r="38" spans="1:6" ht="62.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="71" t="s">
+      <c r="A38" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="71"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="73" t="s">
+      <c r="B38" s="29"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="74"/>
-      <c r="F38" s="74"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
     </row>
     <row r="39" spans="1:6" ht="4.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" x14ac:dyDescent="0.3"/>
-    <row r="79" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="80" x14ac:dyDescent="0.3"/>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="A15:A16 A27:A37 C37:C38 B6:D10 F6:F10" name="Rango1"/>
   </protectedRanges>
   <mergeCells count="44">
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:E2"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="A26:F26"/>
     <mergeCell ref="A35:F35"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="D28:F28"/>
@@ -1513,31 +1545,17 @@
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="D31:F31"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:E2"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:F38"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Escriba el codigo y nombre asignado a la cotización" sqref="B8 B10" xr:uid="{8A285CF0-7145-4429-B77B-CDA73E336CD6}"/>
